--- a/_notes_/Athasian Bard Planning.xlsx
+++ b/_notes_/Athasian Bard Planning.xlsx
@@ -682,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -765,9 +765,6 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,273 +802,278 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="2" t="s">
+    <row r="27" spans="1:6">
+      <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="2" t="s">
+    <row r="28" spans="1:6">
+      <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="2" t="s">
+    <row r="29" spans="1:6">
+      <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="D29" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="D36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="D38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="E38" s="2" t="s">
+    <row r="39" spans="1:6">
+      <c r="E39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="E43" s="2" t="s">
+    <row r="44" spans="1:6">
+      <c r="E44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="8" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="8" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="8" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>86</v>
       </c>
     </row>
